--- a/ams/cases/ieee39/ieee39_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_esd1.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20D4C6-BA41-024A-869B-8C8BFFC93BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187C6366-5FF0-A24E-BDC8-031828B7AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
     <sheet name="Bus" sheetId="1" r:id="rId2"/>
     <sheet name="PQ" sheetId="2" r:id="rId3"/>
     <sheet name="Slack" sheetId="4" r:id="rId4"/>
-    <sheet name="Line" sheetId="5" r:id="rId5"/>
-    <sheet name="GCost" sheetId="6" r:id="rId6"/>
-    <sheet name="Area" sheetId="7" r:id="rId7"/>
-    <sheet name="Region" sheetId="8" r:id="rId8"/>
-    <sheet name="SFR" sheetId="9" r:id="rId9"/>
-    <sheet name="SFRCost" sheetId="10" r:id="rId10"/>
-    <sheet name="PV" sheetId="3" r:id="rId11"/>
-    <sheet name="ESD1" sheetId="11" r:id="rId12"/>
+    <sheet name="PV" sheetId="3" r:id="rId5"/>
+    <sheet name="ESD1" sheetId="11" r:id="rId6"/>
+    <sheet name="Line" sheetId="5" r:id="rId7"/>
+    <sheet name="Area" sheetId="7" r:id="rId8"/>
+    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="SFR" sheetId="9" r:id="rId10"/>
+    <sheet name="SFRCost" sheetId="10" r:id="rId11"/>
+    <sheet name="GCost" sheetId="6" r:id="rId12"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId13"/>
     <sheet name="UCTSlot" sheetId="13" r:id="rId14"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="391">
   <si>
     <t>idx</t>
   </si>
@@ -393,36 +393,6 @@
   </si>
   <si>
     <t>td2</t>
-  </si>
-  <si>
-    <t>PV 30</t>
-  </si>
-  <si>
-    <t>PV 32</t>
-  </si>
-  <si>
-    <t>PV 33</t>
-  </si>
-  <si>
-    <t>PV 34</t>
-  </si>
-  <si>
-    <t>PV 35</t>
-  </si>
-  <si>
-    <t>PV 36</t>
-  </si>
-  <si>
-    <t>PV 37</t>
-  </si>
-  <si>
-    <t>PV 38</t>
-  </si>
-  <si>
-    <t>PV 39</t>
-  </si>
-  <si>
-    <t>Slack 31</t>
   </si>
   <si>
     <t>bus1</t>
@@ -1327,6 +1297,36 @@
   </si>
   <si>
     <t>Modified IEEE 14-bus test case</t>
+  </si>
+  <si>
+    <t>Slack_31</t>
+  </si>
+  <si>
+    <t>PV_30</t>
+  </si>
+  <si>
+    <t>PV_32</t>
+  </si>
+  <si>
+    <t>PV_33</t>
+  </si>
+  <si>
+    <t>PV_34</t>
+  </si>
+  <si>
+    <t>PV_35</t>
+  </si>
+  <si>
+    <t>PV_36</t>
+  </si>
+  <si>
+    <t>PV_37</t>
+  </si>
+  <si>
+    <t>PV_38</t>
+  </si>
+  <si>
+    <t>PV_39</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1490,6 +1490,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04B75D-6231-274E-B5EE-94327CA089DE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1807,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
@@ -1824,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1838,11 +1839,118 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="187" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1855,183 +1963,183 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" t="s">
         <v>261</v>
       </c>
-      <c r="B3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>271</v>
-      </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>385</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>389</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>390</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2040,18 +2148,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG10"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="276" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2065,1103 +2173,379 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2">
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="F2">
-        <v>345</v>
-      </c>
-      <c r="G2">
+      <c r="J3">
         <v>30</v>
       </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>2.5</v>
-      </c>
-      <c r="J2">
-        <v>1.6176200000000001</v>
-      </c>
-      <c r="K2">
-        <v>10.4</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1.4</v>
-      </c>
-      <c r="O2">
-        <v>1.0499000000000001</v>
-      </c>
-      <c r="P2">
-        <v>1.4</v>
-      </c>
-      <c r="Q2">
-        <v>0.6</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.3</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0.01</v>
-      </c>
-      <c r="AA2">
-        <v>0.01</v>
-      </c>
-      <c r="AB2">
-        <v>0.01</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>30</v>
-      </c>
-      <c r="AG2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>345</v>
-      </c>
-      <c r="G3">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3">
-        <v>6.5</v>
-      </c>
-      <c r="J3">
-        <v>2.0696500000000002</v>
-      </c>
       <c r="K3">
-        <v>7.25</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="P3">
-        <v>1.4</v>
-      </c>
-      <c r="Q3">
-        <v>0.6</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.3</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>30</v>
-      </c>
-      <c r="AG3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>242</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4">
+        <v>241</v>
+      </c>
+      <c r="E4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>345</v>
-      </c>
-      <c r="G4">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>33</v>
-      </c>
-      <c r="I4">
-        <v>6.32</v>
-      </c>
       <c r="J4">
-        <v>1.0829299999999999</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>6.52</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="P4">
-        <v>1.4</v>
-      </c>
-      <c r="Q4">
-        <v>0.6</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0.3</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>30</v>
-      </c>
-      <c r="AG4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>243</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5">
+        <v>242</v>
+      </c>
+      <c r="E5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="F5">
-        <v>345</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>5.08</v>
-      </c>
       <c r="J5">
-        <v>1.6668799999999999</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>5.08</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1.67</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1.0123</v>
-      </c>
-      <c r="P5">
-        <v>1.4</v>
-      </c>
-      <c r="Q5">
-        <v>0.6</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.3</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>30</v>
-      </c>
-      <c r="AG5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>244</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6">
+        <v>243</v>
+      </c>
+      <c r="E6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>345</v>
-      </c>
-      <c r="G6">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>35</v>
-      </c>
-      <c r="I6">
-        <v>6.5</v>
-      </c>
       <c r="J6">
-        <v>2.1066099999999999</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>6.87</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
-      </c>
-      <c r="O6">
-        <v>1.0494000000000001</v>
-      </c>
-      <c r="P6">
-        <v>1.4</v>
-      </c>
-      <c r="Q6">
-        <v>0.6</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.3</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>30</v>
-      </c>
-      <c r="AG6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>7</v>
+      <c r="B7" t="s">
+        <v>245</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>100</v>
       </c>
-      <c r="F7">
-        <v>345</v>
-      </c>
-      <c r="G7">
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>5.6</v>
-      </c>
       <c r="J7">
-        <v>1.0016499999999999</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>5.8</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1.0636000000000001</v>
-      </c>
-      <c r="P7">
-        <v>1.4</v>
-      </c>
-      <c r="Q7">
-        <v>0.6</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.3</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>30</v>
-      </c>
-      <c r="AG7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>246</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8">
+        <v>245</v>
+      </c>
+      <c r="E8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>100</v>
       </c>
-      <c r="F8">
-        <v>345</v>
-      </c>
-      <c r="G8">
-        <v>37</v>
-      </c>
-      <c r="H8">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>5.4</v>
-      </c>
       <c r="J8">
-        <v>-1.36945E-2</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>5.64</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2.5</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1.0275000000000001</v>
-      </c>
-      <c r="P8">
-        <v>1.4</v>
-      </c>
-      <c r="Q8">
-        <v>0.6</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0.3</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>30</v>
-      </c>
-      <c r="AG8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>9</v>
+      <c r="B9" t="s">
+        <v>247</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
+        <v>246</v>
+      </c>
+      <c r="E9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="F9">
-        <v>345</v>
-      </c>
-      <c r="G9">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>38</v>
-      </c>
-      <c r="I9">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="J9">
-        <v>0.21732699999999999</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>8.65</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>-1.5</v>
-      </c>
-      <c r="O9">
-        <v>1.0265</v>
-      </c>
-      <c r="P9">
-        <v>1.4</v>
-      </c>
-      <c r="Q9">
-        <v>0.6</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.3</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>30</v>
-      </c>
-      <c r="AG9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>10</v>
+      <c r="B10" t="s">
+        <v>248</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>345</v>
-      </c>
-      <c r="G10">
-        <v>39</v>
-      </c>
-      <c r="H10">
-        <v>39</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
       <c r="J10">
-        <v>0.78467399999999998</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>-1</v>
-      </c>
-      <c r="O10">
-        <v>1.03</v>
-      </c>
-      <c r="P10">
-        <v>1.4</v>
-      </c>
-      <c r="Q10">
-        <v>0.6</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.3</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
         <v>30</v>
       </c>
-      <c r="AG10">
-        <v>30</v>
+      <c r="K11">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BCC95A-1DD8-CE44-8FDD-00EA1DD0739C}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="6">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="6">
-        <v>100</v>
-      </c>
-      <c r="H2" s="6">
-        <v>100</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3184,21 +2568,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D2" s="2">
         <v>60</v>
@@ -3206,13 +2590,13 @@
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>
@@ -3220,13 +2604,13 @@
     </row>
     <row r="4" spans="1:4" ht="16">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D4" s="2">
         <v>60</v>
@@ -3234,13 +2618,13 @@
     </row>
     <row r="5" spans="1:4" ht="16">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D5" s="2">
         <v>60</v>
@@ -3248,13 +2632,13 @@
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D6" s="2">
         <v>60</v>
@@ -3262,13 +2646,13 @@
     </row>
     <row r="7" spans="1:4" ht="16">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D7" s="2">
         <v>60</v>
@@ -3276,13 +2660,13 @@
     </row>
     <row r="8" spans="1:4" ht="16">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D8" s="2">
         <v>60</v>
@@ -3290,13 +2674,13 @@
     </row>
     <row r="9" spans="1:4" ht="16">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D9" s="2">
         <v>60</v>
@@ -3304,13 +2688,13 @@
     </row>
     <row r="10" spans="1:4" ht="16">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D10" s="2">
         <v>60</v>
@@ -3318,13 +2702,13 @@
     </row>
     <row r="11" spans="1:4" ht="16">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D11" s="2">
         <v>60</v>
@@ -3332,13 +2716,13 @@
     </row>
     <row r="12" spans="1:4" ht="16">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D12" s="2">
         <v>60</v>
@@ -3346,13 +2730,13 @@
     </row>
     <row r="13" spans="1:4" ht="16">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D13" s="2">
         <v>60</v>
@@ -3360,13 +2744,13 @@
     </row>
     <row r="14" spans="1:4" ht="16">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D14" s="2">
         <v>60</v>
@@ -3374,13 +2758,13 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D15" s="2">
         <v>60</v>
@@ -3388,13 +2772,13 @@
     </row>
     <row r="16" spans="1:4" ht="16">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D16" s="2">
         <v>60</v>
@@ -3402,13 +2786,13 @@
     </row>
     <row r="17" spans="1:4" ht="16">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D17" s="2">
         <v>60</v>
@@ -3416,13 +2800,13 @@
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D18" s="2">
         <v>60</v>
@@ -3430,13 +2814,13 @@
     </row>
     <row r="19" spans="1:4" ht="16">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D19" s="2">
         <v>60</v>
@@ -3444,13 +2828,13 @@
     </row>
     <row r="20" spans="1:4" ht="16">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D20" s="2">
         <v>60</v>
@@ -3458,13 +2842,13 @@
     </row>
     <row r="21" spans="1:4" ht="16">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D21" s="2">
         <v>60</v>
@@ -3472,13 +2856,13 @@
     </row>
     <row r="22" spans="1:4" ht="16">
       <c r="A22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="D22" s="2">
         <v>60</v>
@@ -3486,13 +2870,13 @@
     </row>
     <row r="23" spans="1:4" ht="16">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D23" s="2">
         <v>60</v>
@@ -3500,13 +2884,13 @@
     </row>
     <row r="24" spans="1:4" ht="16">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D24" s="2">
         <v>60</v>
@@ -3514,13 +2898,13 @@
     </row>
     <row r="25" spans="1:4" ht="16">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D25" s="2">
         <v>60</v>
@@ -3550,21 +2934,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D2" s="2">
         <v>60</v>
@@ -3572,13 +2956,13 @@
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>
@@ -3586,13 +2970,13 @@
     </row>
     <row r="4" spans="1:4" ht="16">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D4" s="2">
         <v>60</v>
@@ -3600,13 +2984,13 @@
     </row>
     <row r="5" spans="1:4" ht="16">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D5" s="2">
         <v>60</v>
@@ -3614,13 +2998,13 @@
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D6" s="2">
         <v>60</v>
@@ -3628,13 +3012,13 @@
     </row>
     <row r="7" spans="1:4" ht="16">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D7" s="2">
         <v>60</v>
@@ -3642,13 +3026,13 @@
     </row>
     <row r="8" spans="1:4" ht="16">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D8" s="2">
         <v>60</v>
@@ -3656,13 +3040,13 @@
     </row>
     <row r="9" spans="1:4" ht="16">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D9" s="2">
         <v>60</v>
@@ -3670,13 +3054,13 @@
     </row>
     <row r="10" spans="1:4" ht="16">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D10" s="2">
         <v>60</v>
@@ -3684,13 +3068,13 @@
     </row>
     <row r="11" spans="1:4" ht="16">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D11" s="2">
         <v>60</v>
@@ -3698,13 +3082,13 @@
     </row>
     <row r="12" spans="1:4" ht="16">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D12" s="2">
         <v>60</v>
@@ -3712,13 +3096,13 @@
     </row>
     <row r="13" spans="1:4" ht="16">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D13" s="2">
         <v>60</v>
@@ -3726,13 +3110,13 @@
     </row>
     <row r="14" spans="1:4" ht="16">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D14" s="2">
         <v>60</v>
@@ -3740,13 +3124,13 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D15" s="2">
         <v>60</v>
@@ -3754,13 +3138,13 @@
     </row>
     <row r="16" spans="1:4" ht="16">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D16" s="2">
         <v>60</v>
@@ -3768,13 +3152,13 @@
     </row>
     <row r="17" spans="1:4" ht="16">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D17" s="2">
         <v>60</v>
@@ -3782,13 +3166,13 @@
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D18" s="2">
         <v>60</v>
@@ -3796,13 +3180,13 @@
     </row>
     <row r="19" spans="1:4" ht="16">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D19" s="2">
         <v>60</v>
@@ -3810,13 +3194,13 @@
     </row>
     <row r="20" spans="1:4" ht="16">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D20" s="2">
         <v>60</v>
@@ -3824,13 +3208,13 @@
     </row>
     <row r="21" spans="1:4" ht="16">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="D21" s="2">
         <v>60</v>
@@ -3838,13 +3222,13 @@
     </row>
     <row r="22" spans="1:4" ht="16">
       <c r="A22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="D22" s="2">
         <v>60</v>
@@ -3852,13 +3236,13 @@
     </row>
     <row r="23" spans="1:4" ht="16">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D23" s="2">
         <v>60</v>
@@ -3866,13 +3250,13 @@
     </row>
     <row r="24" spans="1:4" ht="16">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D24" s="2">
         <v>60</v>
@@ -3880,13 +3264,13 @@
     </row>
     <row r="25" spans="1:4" ht="16">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D25" s="2">
         <v>60</v>
@@ -3909,7 +3293,7 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L40"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3995,8 +3379,8 @@
       <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="M2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4036,8 +3420,8 @@
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="M3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4077,8 +3461,8 @@
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="M4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4118,8 +3502,8 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="M5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4159,8 +3543,8 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>1</v>
+      <c r="M6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4200,8 +3584,8 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>1</v>
+      <c r="M7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4241,8 +3625,8 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="M8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4282,8 +3666,8 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4323,8 +3707,8 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="M10" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4364,8 +3748,8 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4405,8 +3789,8 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="M12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4446,8 +3830,8 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="M13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4487,8 +3871,8 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="M14" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4528,8 +3912,8 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="M15" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4569,8 +3953,8 @@
       <c r="L16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="M16" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -4610,8 +3994,8 @@
       <c r="L17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4651,8 +4035,8 @@
       <c r="L18">
         <v>2</v>
       </c>
-      <c r="M18">
-        <v>1</v>
+      <c r="M18" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4692,8 +4076,8 @@
       <c r="L19">
         <v>2</v>
       </c>
-      <c r="M19">
-        <v>1</v>
+      <c r="M19" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4733,8 +4117,8 @@
       <c r="L20">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>1</v>
+      <c r="M20" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4774,8 +4158,8 @@
       <c r="L21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>1</v>
+      <c r="M21" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -4815,8 +4199,8 @@
       <c r="L22">
         <v>3</v>
       </c>
-      <c r="M22">
-        <v>1</v>
+      <c r="M22" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -4856,8 +4240,8 @@
       <c r="L23">
         <v>3</v>
       </c>
-      <c r="M23">
-        <v>1</v>
+      <c r="M23" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4897,8 +4281,8 @@
       <c r="L24">
         <v>3</v>
       </c>
-      <c r="M24">
-        <v>1</v>
+      <c r="M24" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4938,8 +4322,8 @@
       <c r="L25">
         <v>3</v>
       </c>
-      <c r="M25">
-        <v>1</v>
+      <c r="M25" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4979,8 +4363,8 @@
       <c r="L26">
         <v>2</v>
       </c>
-      <c r="M26">
-        <v>1</v>
+      <c r="M26" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -5020,8 +4404,8 @@
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>1</v>
+      <c r="M27" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -5061,8 +4445,8 @@
       <c r="L28">
         <v>2</v>
       </c>
-      <c r="M28">
-        <v>1</v>
+      <c r="M28" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -5102,8 +4486,8 @@
       <c r="L29">
         <v>3</v>
       </c>
-      <c r="M29">
-        <v>1</v>
+      <c r="M29" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -5143,8 +4527,8 @@
       <c r="L30">
         <v>3</v>
       </c>
-      <c r="M30">
-        <v>1</v>
+      <c r="M30" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -5184,8 +4568,8 @@
       <c r="L31">
         <v>2</v>
       </c>
-      <c r="M31">
-        <v>1</v>
+      <c r="M31" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -5225,8 +4609,8 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="M32">
-        <v>1</v>
+      <c r="M32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -5266,8 +4650,8 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>1</v>
+      <c r="M33" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -5307,8 +4691,8 @@
       <c r="L34">
         <v>3</v>
       </c>
-      <c r="M34">
-        <v>1</v>
+      <c r="M34" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -5348,8 +4732,8 @@
       <c r="L35">
         <v>3</v>
       </c>
-      <c r="M35">
-        <v>1</v>
+      <c r="M35" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -5389,8 +4773,8 @@
       <c r="L36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>1</v>
+      <c r="M36" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -5430,8 +4814,8 @@
       <c r="L37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>1</v>
+      <c r="M37" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -5471,8 +4855,8 @@
       <c r="L38">
         <v>2</v>
       </c>
-      <c r="M38">
-        <v>1</v>
+      <c r="M38" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -5512,8 +4896,8 @@
       <c r="L39">
         <v>3</v>
       </c>
-      <c r="M39">
-        <v>1</v>
+      <c r="M39" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -5553,8 +4937,8 @@
       <c r="L40">
         <v>1</v>
       </c>
-      <c r="M40">
-        <v>1</v>
+      <c r="M40" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6289,9 +5673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="282" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6404,14 +5788,14 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>381</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -6510,6 +5894,1133 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG10"/>
+  <sheetViews>
+    <sheetView zoomScale="264" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>345</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>2.5</v>
+      </c>
+      <c r="J2">
+        <v>1.6176200000000001</v>
+      </c>
+      <c r="K2">
+        <v>10.4</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1.4</v>
+      </c>
+      <c r="O2">
+        <v>1.0499000000000001</v>
+      </c>
+      <c r="P2">
+        <v>1.4</v>
+      </c>
+      <c r="Q2">
+        <v>0.6</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.3</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.01</v>
+      </c>
+      <c r="AA2">
+        <v>0.01</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>30</v>
+      </c>
+      <c r="AG2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>345</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>6.5</v>
+      </c>
+      <c r="J3">
+        <v>2.0696500000000002</v>
+      </c>
+      <c r="K3">
+        <v>7.25</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+      <c r="O3">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="Q3">
+        <v>0.6</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>30</v>
+      </c>
+      <c r="AG3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>345</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>6.32</v>
+      </c>
+      <c r="J4">
+        <v>1.0829299999999999</v>
+      </c>
+      <c r="K4">
+        <v>6.52</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.6</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.3</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>30</v>
+      </c>
+      <c r="AG4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>345</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>5.08</v>
+      </c>
+      <c r="J5">
+        <v>1.6668799999999999</v>
+      </c>
+      <c r="K5">
+        <v>5.08</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.67</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.0123</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.3</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>30</v>
+      </c>
+      <c r="AG5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>345</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>6.5</v>
+      </c>
+      <c r="J6">
+        <v>2.1066099999999999</v>
+      </c>
+      <c r="K6">
+        <v>6.87</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>1.0494000000000001</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>0.6</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.3</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>30</v>
+      </c>
+      <c r="AG6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>345</v>
+      </c>
+      <c r="G7">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>5.6</v>
+      </c>
+      <c r="J7">
+        <v>1.0016499999999999</v>
+      </c>
+      <c r="K7">
+        <v>5.8</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.0636000000000001</v>
+      </c>
+      <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="Q7">
+        <v>0.6</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.3</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>30</v>
+      </c>
+      <c r="AG7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>5.4</v>
+      </c>
+      <c r="J8">
+        <v>-1.36945E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.64</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.0275000000000001</v>
+      </c>
+      <c r="P8">
+        <v>1.4</v>
+      </c>
+      <c r="Q8">
+        <v>0.6</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.3</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>30</v>
+      </c>
+      <c r="AG8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>345</v>
+      </c>
+      <c r="G9">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J9">
+        <v>0.21732699999999999</v>
+      </c>
+      <c r="K9">
+        <v>8.65</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>-1.5</v>
+      </c>
+      <c r="O9">
+        <v>1.0265</v>
+      </c>
+      <c r="P9">
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <v>0.6</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.3</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>30</v>
+      </c>
+      <c r="AG9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>345</v>
+      </c>
+      <c r="G10">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0.78467399999999998</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
+        <v>0.6</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.3</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>30</v>
+      </c>
+      <c r="AG10">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BCC95A-1DD8-CE44-8FDD-00EA1DD0739C}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="6">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="6">
+        <v>100</v>
+      </c>
+      <c r="H2" s="6">
+        <v>100</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
@@ -6534,64 +7045,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>12</v>
@@ -6603,10 +7114,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -6614,13 +7125,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6694,13 +7205,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6774,13 +7285,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -6854,13 +7365,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -6934,13 +7445,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -7014,13 +7525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -7094,13 +7605,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -7174,13 +7685,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -7254,13 +7765,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -7334,13 +7845,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -7414,13 +7925,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -7494,13 +8005,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -7574,13 +8085,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -7654,13 +8165,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -7734,13 +8245,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -7814,13 +8325,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -7894,13 +8405,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -7974,13 +8485,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -8054,13 +8565,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -8134,13 +8645,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -8214,13 +8725,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -8294,13 +8805,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -8374,13 +8885,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -8454,13 +8965,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E25">
         <v>14</v>
@@ -8534,13 +9045,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -8614,13 +9125,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E27">
         <v>16</v>
@@ -8694,13 +9205,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E28">
         <v>16</v>
@@ -8774,13 +9285,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E29">
         <v>16</v>
@@ -8854,13 +9365,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E30">
         <v>16</v>
@@ -8934,13 +9445,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E31">
         <v>17</v>
@@ -9014,13 +9525,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E32">
         <v>17</v>
@@ -9094,13 +9605,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E33">
         <v>19</v>
@@ -9174,13 +9685,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E34">
         <v>19</v>
@@ -9254,13 +9765,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -9334,13 +9845,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E36">
         <v>21</v>
@@ -9414,13 +9925,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E37">
         <v>22</v>
@@ -9494,13 +10005,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E38">
         <v>22</v>
@@ -9574,13 +10085,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E39">
         <v>23</v>
@@ -9654,13 +10165,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E40">
         <v>23</v>
@@ -9734,13 +10245,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E41">
         <v>25</v>
@@ -9814,13 +10325,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E42">
         <v>25</v>
@@ -9894,13 +10405,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E43">
         <v>26</v>
@@ -9974,13 +10485,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E44">
         <v>26</v>
@@ -10054,13 +10565,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E45">
         <v>26</v>
@@ -10134,13 +10645,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E46">
         <v>28</v>
@@ -10214,13 +10725,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E47">
         <v>29</v>
@@ -10294,408 +10805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E9" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9F343-EA84-104D-B986-691ADB4C355F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -10721,30 +10831,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10755,10 +10865,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -10766,7 +10876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -10792,16 +10902,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10809,13 +10919,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10823,120 +10933,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/ams/cases/ieee39/ieee39_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187C6366-5FF0-A24E-BDC8-031828B7AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F4B68C-86CB-964C-B5AE-B49325274040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="391">
   <si>
     <t>idx</t>
   </si>
@@ -2152,9 +2152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="276" workbookViewId="0">
+    <sheetView zoomScale="185" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2554,7 +2554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="172" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3291,9 +3291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4950,9 +4950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5673,9 +5673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView zoomScale="282" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5816,7 +5816,7 @@
         <v>2.2157399999999998</v>
       </c>
       <c r="K2">
-        <v>6.46</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -5864,13 +5864,13 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -5897,9 +5897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView zoomScale="264" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="168" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6031,7 +6031,7 @@
         <v>30</v>
       </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="J2">
         <v>1.6176200000000001</v>
@@ -6082,13 +6082,13 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01</v>
+        <v>99</v>
       </c>
       <c r="AA2">
-        <v>0.01</v>
+        <v>99</v>
       </c>
       <c r="AB2">
-        <v>0.01</v>
+        <v>299</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -6183,13 +6183,13 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>33</v>
       </c>
       <c r="I4">
-        <v>6.32</v>
+        <v>6.5</v>
       </c>
       <c r="J4">
         <v>1.0829299999999999</v>
@@ -6284,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>34</v>
       </c>
       <c r="I5">
-        <v>5.08</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>1.6668799999999999</v>
@@ -6385,13 +6385,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>35</v>
       </c>
       <c r="I6">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="J6">
         <v>2.1066099999999999</v>
@@ -6486,13 +6486,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -6587,13 +6587,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -6688,13 +6688,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>38</v>
       </c>
       <c r="I9">
-        <v>8.3000000000000007</v>
+        <v>6.5</v>
       </c>
       <c r="J9">
         <v>0.21732699999999999</v>
@@ -6789,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -6839,7 +6839,7 @@
         <v>39</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="J10">
         <v>0.78467399999999998</v>
@@ -6890,13 +6890,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -6924,8 +6924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BCC95A-1DD8-CE44-8FDD-00EA1DD0739C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6978,8 +6978,8 @@
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7024,7 +7024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -10880,8 +10880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ams/cases/ieee39/ieee39_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_esd1.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F4B68C-86CB-964C-B5AE-B49325274040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D773B43B-E676-B444-9056-96B892AEDD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
     <sheet name="Bus" sheetId="1" r:id="rId2"/>
     <sheet name="PQ" sheetId="2" r:id="rId3"/>
     <sheet name="Slack" sheetId="4" r:id="rId4"/>
-    <sheet name="PV" sheetId="3" r:id="rId5"/>
-    <sheet name="ESD1" sheetId="11" r:id="rId6"/>
-    <sheet name="Line" sheetId="5" r:id="rId7"/>
-    <sheet name="Area" sheetId="7" r:id="rId8"/>
-    <sheet name="Region" sheetId="8" r:id="rId9"/>
-    <sheet name="SFR" sheetId="9" r:id="rId10"/>
-    <sheet name="SFRCost" sheetId="10" r:id="rId11"/>
-    <sheet name="GCost" sheetId="6" r:id="rId12"/>
-    <sheet name="EDTSlot" sheetId="12" r:id="rId13"/>
-    <sheet name="UCTSlot" sheetId="13" r:id="rId14"/>
+    <sheet name="RTEDCFG" sheetId="15" r:id="rId5"/>
+    <sheet name="PV" sheetId="3" r:id="rId6"/>
+    <sheet name="ESD1" sheetId="11" r:id="rId7"/>
+    <sheet name="Line" sheetId="5" r:id="rId8"/>
+    <sheet name="Area" sheetId="7" r:id="rId9"/>
+    <sheet name="Region" sheetId="8" r:id="rId10"/>
+    <sheet name="SFR" sheetId="9" r:id="rId11"/>
+    <sheet name="SFRCost" sheetId="10" r:id="rId12"/>
+    <sheet name="GCost" sheetId="6" r:id="rId13"/>
+    <sheet name="EDTSlot" sheetId="12" r:id="rId14"/>
+    <sheet name="UCTSlot" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="392">
   <si>
     <t>idx</t>
   </si>
@@ -1328,14 +1329,24 @@
   <si>
     <t>PV_39</t>
   </si>
+  <si>
+    <t>RTEDCFG1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1467,30 +1478,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,6 +1851,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1945,7 +2028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2143,12 +2226,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -2545,744 +2628,895 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="172" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16">
-      <c r="A6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16">
-      <c r="A7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16">
-      <c r="A9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16">
-      <c r="A10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16">
-      <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16">
-      <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16">
-      <c r="A13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16">
-      <c r="A14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D15" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16">
-      <c r="A16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D16" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16">
-      <c r="A17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D17" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16">
-      <c r="A18" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D18" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16">
-      <c r="A19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16">
-      <c r="A20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16">
-      <c r="A21" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16">
-      <c r="A22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16">
-      <c r="A23" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16">
-      <c r="A24" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16">
-      <c r="A25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="2">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" t="s">
         <v>261</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" t="s">
         <v>253</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" t="s">
         <v>254</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" t="s">
         <v>256</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" t="s">
         <v>257</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" t="s">
         <v>258</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C10" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" t="s">
         <v>259</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" t="s">
         <v>260</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" t="s">
         <v>324</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" t="s">
         <v>326</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" t="s">
         <v>328</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" t="s">
         <v>330</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" t="s">
         <v>332</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" t="s">
         <v>334</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" t="s">
         <v>336</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" t="s">
         <v>338</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" t="s">
         <v>340</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C21" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" t="s">
         <v>342</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" t="s">
         <v>344</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" t="s">
         <v>346</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C24" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" t="s">
         <v>348</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="2">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16">
+    <row r="26" spans="1:5" ht="16">
       <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5673,7 +5907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
@@ -5894,6 +6128,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396C59AC-6247-9647-AF4E-4140A33E5886}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
@@ -6915,17 +7192,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BCC95A-1DD8-CE44-8FDD-00EA1DD0739C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7012,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -7020,7 +7297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
@@ -10805,7 +11082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9F343-EA84-104D-B986-691ADB4C355F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -10874,75 +11151,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ams/cases/ieee39/ieee39_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_esd1.xlsx
@@ -8,33 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D773B43B-E676-B444-9056-96B892AEDD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C7384-1BE1-E44F-96FE-E01FAD66097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
     <sheet name="Bus" sheetId="1" r:id="rId2"/>
     <sheet name="PQ" sheetId="2" r:id="rId3"/>
     <sheet name="Slack" sheetId="4" r:id="rId4"/>
-    <sheet name="RTEDCFG" sheetId="15" r:id="rId5"/>
-    <sheet name="PV" sheetId="3" r:id="rId6"/>
-    <sheet name="ESD1" sheetId="11" r:id="rId7"/>
-    <sheet name="Line" sheetId="5" r:id="rId8"/>
-    <sheet name="Area" sheetId="7" r:id="rId9"/>
-    <sheet name="Region" sheetId="8" r:id="rId10"/>
-    <sheet name="SFR" sheetId="9" r:id="rId11"/>
-    <sheet name="SFRCost" sheetId="10" r:id="rId12"/>
-    <sheet name="GCost" sheetId="6" r:id="rId13"/>
-    <sheet name="EDTSlot" sheetId="12" r:id="rId14"/>
-    <sheet name="UCTSlot" sheetId="13" r:id="rId15"/>
+    <sheet name="PV" sheetId="3" r:id="rId5"/>
+    <sheet name="ESD1" sheetId="11" r:id="rId6"/>
+    <sheet name="Line" sheetId="5" r:id="rId7"/>
+    <sheet name="Area" sheetId="7" r:id="rId8"/>
+    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="SFR" sheetId="9" r:id="rId10"/>
+    <sheet name="SFRCost" sheetId="10" r:id="rId11"/>
+    <sheet name="GCost" sheetId="6" r:id="rId12"/>
+    <sheet name="EDTSlot" sheetId="12" r:id="rId13"/>
+    <sheet name="UCTSlot" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="390">
   <si>
     <t>idx</t>
   </si>
@@ -1052,9 +1051,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>dt</t>
-  </si>
-  <si>
     <t>EDT1</t>
   </si>
   <si>
@@ -1328,25 +1324,15 @@
   </si>
   <si>
     <t>PV_39</t>
-  </si>
-  <si>
-    <t>RTEDCFG1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1478,31 +1464,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1820,16 +1805,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
@@ -1837,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1851,77 +1836,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2028,7 +1942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2063,7 +1977,7 @@
         <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
         <v>261</v>
@@ -2080,7 +1994,7 @@
         <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D3" t="s">
         <v>261</v>
@@ -2097,7 +2011,7 @@
         <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
         <v>261</v>
@@ -2114,7 +2028,7 @@
         <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
         <v>261</v>
@@ -2131,7 +2045,7 @@
         <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D6" t="s">
         <v>261</v>
@@ -2148,7 +2062,7 @@
         <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
         <v>261</v>
@@ -2165,7 +2079,7 @@
         <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" t="s">
         <v>261</v>
@@ -2182,7 +2096,7 @@
         <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
         <v>261</v>
@@ -2199,7 +2113,7 @@
         <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
         <v>261</v>
@@ -2216,7 +2130,7 @@
         <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
         <v>261</v>
@@ -2226,12 +2140,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -2291,7 +2205,7 @@
         <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2326,7 +2240,7 @@
         <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2361,7 +2275,7 @@
         <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2396,7 +2310,7 @@
         <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2431,7 +2345,7 @@
         <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2466,7 +2380,7 @@
         <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2501,7 +2415,7 @@
         <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2536,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2571,7 +2485,7 @@
         <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2606,7 +2520,7 @@
         <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2628,22 +2542,388 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16">
+      <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
+      <c r="A18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16">
+      <c r="A19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16">
+      <c r="A21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16">
+      <c r="A22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16">
+      <c r="A24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16">
+      <c r="A25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2656,867 +2936,350 @@
       <c r="D1" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
+    </row>
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" t="s">
         <v>261</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+    </row>
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
+    </row>
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
+    </row>
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" t="s">
         <v>253</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E5" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
+    </row>
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" t="s">
         <v>254</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
+    </row>
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
+    </row>
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" t="s">
         <v>256</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" t="s">
         <v>257</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" t="s">
         <v>258</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" t="s">
         <v>259</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" t="s">
         <v>260</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16">
+      <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
+      <c r="A18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16">
+      <c r="A19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16">
+      <c r="A21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="A13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E13" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E15" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E16" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
-      <c r="A17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16">
-      <c r="A18" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E18" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16">
-      <c r="A19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E19" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D20" s="8" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="16">
+      <c r="A22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E20" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16">
-      <c r="A21" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16">
-      <c r="A22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D22" s="8" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="16">
+      <c r="A24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16">
+      <c r="A25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E22" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16">
-      <c r="A23" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E23" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16">
-      <c r="A24" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16">
-      <c r="A25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E5" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E12" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="A13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E13" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E15" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E16" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
-      <c r="A17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16">
-      <c r="A18" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E18" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16">
-      <c r="A19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E19" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E20" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16">
-      <c r="A21" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16">
-      <c r="A22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16">
-      <c r="A23" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E23" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16">
-      <c r="A24" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16">
-      <c r="A25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16">
+    </row>
+    <row r="26" spans="1:4" ht="16">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6023,13 +5786,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -6128,49 +5891,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396C59AC-6247-9647-AF4E-4140A33E5886}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
@@ -6287,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -6388,13 +6108,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -6489,13 +6209,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -6590,13 +6310,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -6691,13 +6411,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -6792,13 +6512,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -6893,13 +6613,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -6994,13 +6714,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -7095,13 +6815,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -7192,16 +6912,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BCC95A-1DD8-CE44-8FDD-00EA1DD0739C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+    <sheetView zoomScale="158" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -7268,7 +6988,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G2" s="6">
         <v>100</v>
@@ -7297,7 +7017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
@@ -11082,7 +10802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9F343-EA84-104D-B986-691ADB4C355F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -11151,4 +10871,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>